--- a/Byzantium.xlsx
+++ b/Byzantium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpeeple\Dropbox (ASU)\R-GitHub\PopPersistenceFigures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (ASU)\R-GitHub\PopPersistenceFigures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DFCA0FC-A3F5-4EAA-ABD0-670FC5A3B0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321671E2-CA1C-444E-B407-F77FEF071245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{87D21AB2-AAAF-4FCD-A054-91E119698D81}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" xr2:uid="{87D21AB2-AAAF-4FCD-A054-91E119698D81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -390,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4306EDC9-EB2B-4C19-B125-3088ADF04531}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -414,7 +406,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -422,7 +414,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>361</v>
       </c>
@@ -430,7 +422,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -438,7 +430,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -446,371 +438,379 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>542</v>
+      </c>
+      <c r="B7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>600</v>
-      </c>
-      <c r="B7">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>622</v>
       </c>
       <c r="B8">
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>622</v>
+      </c>
+      <c r="B9">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>700</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>775</v>
-      </c>
-      <c r="B10">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>800</v>
       </c>
       <c r="B11">
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>900</v>
-      </c>
-      <c r="B12">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1000</v>
       </c>
       <c r="B13">
         <v>150000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1100</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>225000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1150</v>
-      </c>
-      <c r="B15">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1200</v>
       </c>
       <c r="B16">
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>1200</v>
+      </c>
+      <c r="B17">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1250</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1300</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1350</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>80000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1400</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>75000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1450</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1500</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>200000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1550</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>660000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1575</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>680000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1600</v>
-      </c>
-      <c r="B25">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1650</v>
       </c>
       <c r="B26">
         <v>700000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1700</v>
+        <v>1650</v>
       </c>
       <c r="B27">
         <v>700000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>1700</v>
+      </c>
+      <c r="B28">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1750</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>625000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1800</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>570000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1825</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>675000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>1850</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>785000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1875</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>827750</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1890</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>874000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1900</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>942900</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>1925</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>881000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>1927</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>691000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>1935</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>740800</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1940</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>793900</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1945</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>845300</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>1950</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>983000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1960</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>1459500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1965</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>1743000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>1970</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>2132400</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>1975</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>2547400</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>1980</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>2853500</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>1985</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>5494900</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1990</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>6620200</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>1994</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>7615500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>1997</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>8260400</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2000</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>8831800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2007</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>11174200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2015</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>14657434</v>
       </c>
     </row>
